--- a/Zeitplan.xlsx
+++ b/Zeitplan.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="84" windowWidth="17124" windowHeight="6648"/>
+    <workbookView xWindow="480" yWindow="90" windowWidth="17130" windowHeight="6645"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -16,34 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
-  <si>
-    <t>KW2</t>
-  </si>
-  <si>
-    <t>KW3</t>
-  </si>
-  <si>
-    <t>KW4</t>
-  </si>
-  <si>
-    <t>KW5</t>
-  </si>
-  <si>
-    <t>KW6</t>
-  </si>
-  <si>
-    <t>KW7</t>
-  </si>
-  <si>
-    <t>KW8</t>
-  </si>
-  <si>
-    <t>KW9</t>
-  </si>
-  <si>
-    <t>KW10</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>Planung</t>
   </si>
@@ -124,6 +97,9 @@
   </si>
   <si>
     <t>launch datei anlegen</t>
+  </si>
+  <si>
+    <t>Kalenderwoche:</t>
   </si>
 </sst>
 </file>
@@ -232,10 +208,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -243,24 +218,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -291,21 +254,57 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="4">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -602,334 +601,347 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:K24"/>
+  <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="36.33203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="19.44140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="19">
+        <f ca="1">TODAY()</f>
+        <v>45671</v>
+      </c>
+      <c r="B1" s="19"/>
+      <c r="C1">
+        <f ca="1">WEEKNUM(A1,2)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B2" s="1"/>
-      <c r="C2" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="5"/>
+      <c r="C2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="4"/>
       <c r="G2" s="22" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="H2" s="22"/>
       <c r="I2" s="23"/>
-      <c r="J2" s="4" t="s">
+      <c r="J2" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="K2" s="24" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" s="20">
+        <v>2</v>
+      </c>
+      <c r="D3" s="5">
+        <v>3</v>
+      </c>
+      <c r="E3" s="20">
+        <v>4</v>
+      </c>
+      <c r="F3" s="6">
+        <v>5</v>
+      </c>
+      <c r="G3" s="20">
+        <v>6</v>
+      </c>
+      <c r="H3" s="5">
+        <v>7</v>
+      </c>
+      <c r="I3" s="21">
+        <v>8</v>
+      </c>
+      <c r="J3" s="5">
+        <v>9</v>
+      </c>
+      <c r="K3" s="20">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="7"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="18"/>
+      <c r="B5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="7"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="18"/>
+      <c r="B6" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="9"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="18"/>
+      <c r="B7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="9"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="10"/>
+      <c r="K8" s="3"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="18"/>
+      <c r="B10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="3"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="18"/>
+      <c r="B11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="3"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="18"/>
+      <c r="B12" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="18"/>
+      <c r="B13" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" s="18"/>
+      <c r="B14" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="13"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" s="18"/>
+      <c r="B15" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="K2" s="4" t="s">
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="14"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="13"/>
+      <c r="I15" s="11"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="3"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" s="18" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="2"/>
-      <c r="C3" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="F3" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="G3" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="H3" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="I3" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="J3" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="K3" s="11" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="12"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="4"/>
-      <c r="K4" s="4"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A5" s="24"/>
-      <c r="B5" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C5" s="12"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4"/>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A6" s="24"/>
-      <c r="B6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="14"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="13"/>
-      <c r="I6" s="14"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="4"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A7" s="24"/>
-      <c r="B7" s="1" t="s">
+      <c r="B16" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="4"/>
+      <c r="J16" s="3"/>
+      <c r="K16" s="3"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" s="18"/>
+      <c r="B17" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="14"/>
+      <c r="J17" s="3"/>
+      <c r="K17" s="3"/>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" s="18"/>
+      <c r="B18" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="15"/>
+      <c r="H18" s="15"/>
+      <c r="I18" s="16"/>
+      <c r="J18" s="3"/>
+      <c r="K18" s="3"/>
+    </row>
+    <row r="19" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+      <c r="K19" s="3"/>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B20" s="17" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="B21" s="17" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B22" s="17" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B23" s="17" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="B24" s="17" t="s">
         <v>26</v>
-      </c>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="14"/>
-      <c r="G7" s="13"/>
-      <c r="H7" s="13"/>
-      <c r="I7" s="14"/>
-      <c r="J7" s="4"/>
-      <c r="K7" s="4"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B8" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="5"/>
-      <c r="J8" s="15"/>
-      <c r="K8" s="4"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A9" s="24" t="s">
-        <v>28</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="5"/>
-      <c r="J9" s="4"/>
-      <c r="K9" s="4"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A10" s="24"/>
-      <c r="B10" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C10" s="4"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="5"/>
-      <c r="J10" s="4"/>
-      <c r="K10" s="4"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A11" s="24"/>
-      <c r="B11" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C11" s="4"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="5"/>
-      <c r="J11" s="4"/>
-      <c r="K11" s="4"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A12" s="24"/>
-      <c r="B12" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="16"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="5"/>
-      <c r="J12" s="4"/>
-      <c r="K12" s="4"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A13" s="24"/>
-      <c r="B13" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="17"/>
-      <c r="G13" s="18"/>
-      <c r="H13" s="4"/>
-      <c r="I13" s="5"/>
-      <c r="J13" s="4"/>
-      <c r="K13" s="4"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A14" s="24"/>
-      <c r="B14" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="19"/>
-      <c r="G14" s="18"/>
-      <c r="H14" s="4"/>
-      <c r="I14" s="5"/>
-      <c r="J14" s="4"/>
-      <c r="K14" s="4"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A15" s="24"/>
-      <c r="B15" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="19"/>
-      <c r="G15" s="12"/>
-      <c r="H15" s="18"/>
-      <c r="I15" s="16"/>
-      <c r="J15" s="4"/>
-      <c r="K15" s="4"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A16" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="12"/>
-      <c r="H16" s="12"/>
-      <c r="I16" s="5"/>
-      <c r="J16" s="4"/>
-      <c r="K16" s="4"/>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A17" s="24"/>
-      <c r="B17" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="12"/>
-      <c r="I17" s="19"/>
-      <c r="J17" s="4"/>
-      <c r="K17" s="4"/>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A18" s="24"/>
-      <c r="B18" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="20"/>
-      <c r="H18" s="20"/>
-      <c r="I18" s="21"/>
-      <c r="J18" s="4"/>
-      <c r="K18" s="4"/>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
-      <c r="H19" s="4"/>
-      <c r="I19" s="4"/>
-      <c r="J19" s="4"/>
-      <c r="K19" s="4"/>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B20" s="25" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B21" s="25" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B22" s="25" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B23" s="25" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B24" s="25" t="s">
-        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -939,6 +951,14 @@
     <mergeCell ref="A9:A15"/>
     <mergeCell ref="A4:A7"/>
   </mergeCells>
+  <conditionalFormatting sqref="C3:K3">
+    <cfRule type="timePeriod" dxfId="0" priority="2" timePeriod="thisWeek">
+      <formula>AND(TODAY()-ROUNDDOWN(C3,0)&lt;=WEEKDAY(TODAY())-1,ROUNDDOWN(C3,0)-TODAY()&lt;=7-WEEKDAY(TODAY()))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+      <formula>$C$1</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -950,7 +970,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
@@ -962,7 +982,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Zeitplan.xlsx
+++ b/Zeitplan.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>Planung</t>
   </si>
@@ -100,6 +100,9 @@
   </si>
   <si>
     <t>Kalenderwoche:</t>
+  </si>
+  <si>
+    <t>aktuelle Kalenderwoche:</t>
   </si>
 </sst>
 </file>
@@ -255,9 +258,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -265,25 +265,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -293,11 +291,6 @@
           <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
     </dxf>
     <dxf>
       <font>
@@ -604,7 +597,7 @@
   <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -616,11 +609,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="19">
+      <c r="A1" s="18">
         <f ca="1">TODAY()</f>
         <v>45671</v>
       </c>
-      <c r="B1" s="19"/>
+      <c r="B1" s="18" t="s">
+        <v>28</v>
+      </c>
       <c r="C1">
         <f ca="1">WEEKNUM(A1,2)</f>
         <v>3</v>
@@ -639,10 +634,10 @@
       </c>
       <c r="H2" s="22"/>
       <c r="I2" s="23"/>
-      <c r="J2" s="24" t="s">
+      <c r="J2" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="K2" s="24" t="s">
+      <c r="K2" s="21" t="s">
         <v>4</v>
       </c>
     </row>
@@ -650,36 +645,36 @@
       <c r="B3" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="C3" s="20">
+      <c r="C3" s="19">
         <v>2</v>
       </c>
       <c r="D3" s="5">
         <v>3</v>
       </c>
-      <c r="E3" s="20">
+      <c r="E3" s="19">
         <v>4</v>
       </c>
       <c r="F3" s="6">
         <v>5</v>
       </c>
-      <c r="G3" s="20">
+      <c r="G3" s="19">
         <v>6</v>
       </c>
       <c r="H3" s="5">
         <v>7</v>
       </c>
-      <c r="I3" s="21">
+      <c r="I3" s="20">
         <v>8</v>
       </c>
       <c r="J3" s="5">
         <v>9</v>
       </c>
-      <c r="K3" s="20">
+      <c r="K3" s="19">
         <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="18" t="s">
+      <c r="A4" s="24" t="s">
         <v>20</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -696,7 +691,7 @@
       <c r="K4" s="3"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="18"/>
+      <c r="A5" s="24"/>
       <c r="B5" s="1" t="s">
         <v>18</v>
       </c>
@@ -711,7 +706,7 @@
       <c r="K5" s="3"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="18"/>
+      <c r="A6" s="24"/>
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
@@ -726,7 +721,7 @@
       <c r="K6" s="3"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="18"/>
+      <c r="A7" s="24"/>
       <c r="B7" s="1" t="s">
         <v>17</v>
       </c>
@@ -755,7 +750,7 @@
       <c r="K8" s="3"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="18" t="s">
+      <c r="A9" s="24" t="s">
         <v>19</v>
       </c>
       <c r="B9" s="1" t="s">
@@ -772,7 +767,7 @@
       <c r="K9" s="3"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="18"/>
+      <c r="A10" s="24"/>
       <c r="B10" s="1" t="s">
         <v>7</v>
       </c>
@@ -787,7 +782,7 @@
       <c r="K10" s="3"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="18"/>
+      <c r="A11" s="24"/>
       <c r="B11" s="1" t="s">
         <v>9</v>
       </c>
@@ -802,7 +797,7 @@
       <c r="K11" s="3"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="18"/>
+      <c r="A12" s="24"/>
       <c r="B12" s="1" t="s">
         <v>8</v>
       </c>
@@ -817,7 +812,7 @@
       <c r="K12" s="3"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="18"/>
+      <c r="A13" s="24"/>
       <c r="B13" s="1" t="s">
         <v>10</v>
       </c>
@@ -832,7 +827,7 @@
       <c r="K13" s="3"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="18"/>
+      <c r="A14" s="24"/>
       <c r="B14" s="1" t="s">
         <v>11</v>
       </c>
@@ -847,7 +842,7 @@
       <c r="K14" s="3"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="18"/>
+      <c r="A15" s="24"/>
       <c r="B15" s="1" t="s">
         <v>12</v>
       </c>
@@ -862,7 +857,7 @@
       <c r="K15" s="3"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="18" t="s">
+      <c r="A16" s="24" t="s">
         <v>13</v>
       </c>
       <c r="B16" s="2" t="s">
@@ -879,7 +874,7 @@
       <c r="K16" s="3"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="18"/>
+      <c r="A17" s="24"/>
       <c r="B17" s="2" t="s">
         <v>15</v>
       </c>
@@ -894,7 +889,7 @@
       <c r="K17" s="3"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" s="18"/>
+      <c r="A18" s="24"/>
       <c r="B18" s="2" t="s">
         <v>16</v>
       </c>
@@ -952,10 +947,10 @@
     <mergeCell ref="A4:A7"/>
   </mergeCells>
   <conditionalFormatting sqref="C3:K3">
-    <cfRule type="timePeriod" dxfId="0" priority="2" timePeriod="thisWeek">
+    <cfRule type="timePeriod" dxfId="1" priority="2" timePeriod="thisWeek">
       <formula>AND(TODAY()-ROUNDDOWN(C3,0)&lt;=WEEKDAY(TODAY())-1,ROUNDDOWN(C3,0)-TODAY()&lt;=7-WEEKDAY(TODAY()))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>$C$1</formula>
     </cfRule>
   </conditionalFormatting>
